--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.664768333333334</v>
+        <v>20.408218</v>
       </c>
       <c r="H2">
-        <v>19.994305</v>
+        <v>61.224654</v>
       </c>
       <c r="I2">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="J2">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>1023.235332970984</v>
+        <v>2973.492559919671</v>
       </c>
       <c r="R2">
-        <v>9209.11799673886</v>
+        <v>26761.43303927704</v>
       </c>
       <c r="S2">
-        <v>0.02067065358645799</v>
+        <v>0.03176992908448226</v>
       </c>
       <c r="T2">
-        <v>0.02067065358645799</v>
+        <v>0.03176992908448226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.664768333333334</v>
+        <v>20.408218</v>
       </c>
       <c r="H3">
-        <v>19.994305</v>
+        <v>61.224654</v>
       </c>
       <c r="I3">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="J3">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>1125.010913008882</v>
+        <v>3444.901130356515</v>
       </c>
       <c r="R3">
-        <v>10125.09821707994</v>
+        <v>31004.11017320864</v>
       </c>
       <c r="S3">
-        <v>0.02272664959317903</v>
+        <v>0.03680663812302792</v>
       </c>
       <c r="T3">
-        <v>0.02272664959317902</v>
+        <v>0.03680663812302792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.664768333333334</v>
+        <v>20.408218</v>
       </c>
       <c r="H4">
-        <v>19.994305</v>
+        <v>61.224654</v>
       </c>
       <c r="I4">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="J4">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>623.5735401924218</v>
+        <v>2614.826495939051</v>
       </c>
       <c r="R4">
-        <v>5612.161861731795</v>
+        <v>23533.43846345146</v>
       </c>
       <c r="S4">
-        <v>0.01259697766453526</v>
+        <v>0.02793780400326715</v>
       </c>
       <c r="T4">
-        <v>0.01259697766453526</v>
+        <v>0.02793780400326715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.664768333333334</v>
+        <v>20.408218</v>
       </c>
       <c r="H5">
-        <v>19.994305</v>
+        <v>61.224654</v>
       </c>
       <c r="I5">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="J5">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>453.8062307584279</v>
+        <v>1342.066436147222</v>
       </c>
       <c r="R5">
-        <v>4084.256076825851</v>
+        <v>12078.597925325</v>
       </c>
       <c r="S5">
-        <v>0.009167462351155614</v>
+        <v>0.01433914988649338</v>
       </c>
       <c r="T5">
-        <v>0.009167462351155614</v>
+        <v>0.01433914988649338</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>141.767772</v>
       </c>
       <c r="I6">
-        <v>0.4620233187619071</v>
+        <v>0.2566851044076959</v>
       </c>
       <c r="J6">
-        <v>0.4620233187619071</v>
+        <v>0.256685104407696</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>7255.155574898681</v>
+        <v>6885.223316711405</v>
       </c>
       <c r="R6">
-        <v>65296.40017408813</v>
+        <v>61967.00985040265</v>
       </c>
       <c r="S6">
-        <v>0.1465633591533168</v>
+        <v>0.07356435306118754</v>
       </c>
       <c r="T6">
-        <v>0.1465633591533168</v>
+        <v>0.07356435306118755</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>141.767772</v>
       </c>
       <c r="I7">
-        <v>0.4620233187619071</v>
+        <v>0.2566851044076959</v>
       </c>
       <c r="J7">
-        <v>0.4620233187619071</v>
+        <v>0.256685104407696</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>7976.785920438598</v>
@@ -883,10 +883,10 @@
         <v>71791.07328394738</v>
       </c>
       <c r="S7">
-        <v>0.1611412088517054</v>
+        <v>0.08522702441914867</v>
       </c>
       <c r="T7">
-        <v>0.1611412088517053</v>
+        <v>0.0852270244191487</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>141.767772</v>
       </c>
       <c r="I8">
-        <v>0.4620233187619071</v>
+        <v>0.2566851044076959</v>
       </c>
       <c r="J8">
-        <v>0.4620233187619071</v>
+        <v>0.256685104407696</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>4421.390564524851</v>
+        <v>6054.719827340245</v>
       </c>
       <c r="R8">
-        <v>39792.51508072366</v>
+        <v>54492.4784460622</v>
       </c>
       <c r="S8">
-        <v>0.08931770608855504</v>
+        <v>0.06469093689146636</v>
       </c>
       <c r="T8">
-        <v>0.08931770608855502</v>
+        <v>0.06469093689146638</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>141.767772</v>
       </c>
       <c r="I9">
-        <v>0.4620233187619071</v>
+        <v>0.2566851044076959</v>
       </c>
       <c r="J9">
-        <v>0.4620233187619071</v>
+        <v>0.256685104407696</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>3217.671144575427</v>
+        <v>3107.600551381996</v>
       </c>
       <c r="R9">
-        <v>28959.04030117884</v>
+        <v>27968.40496243796</v>
       </c>
       <c r="S9">
-        <v>0.06500104466832994</v>
+        <v>0.03320279003589337</v>
       </c>
       <c r="T9">
-        <v>0.06500104466832994</v>
+        <v>0.03320279003589338</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.37233166666667</v>
+        <v>85.307233</v>
       </c>
       <c r="H10">
-        <v>82.116995</v>
+        <v>255.921699</v>
       </c>
       <c r="I10">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="J10">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>4202.447182905416</v>
+        <v>12429.32737355284</v>
       </c>
       <c r="R10">
-        <v>37822.02464614874</v>
+        <v>111863.9463619756</v>
       </c>
       <c r="S10">
-        <v>0.08489477164652147</v>
+        <v>0.1327996762286351</v>
       </c>
       <c r="T10">
-        <v>0.08489477164652147</v>
+        <v>0.1327996762286352</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.37233166666667</v>
+        <v>85.307233</v>
       </c>
       <c r="H11">
-        <v>82.116995</v>
+        <v>255.921699</v>
       </c>
       <c r="I11">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="J11">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>4620.441446626719</v>
+        <v>14399.83556571606</v>
       </c>
       <c r="R11">
-        <v>41583.97301964047</v>
+        <v>129598.5200914445</v>
       </c>
       <c r="S11">
-        <v>0.09333878677002448</v>
+        <v>0.1538533376264319</v>
       </c>
       <c r="T11">
-        <v>0.09333878677002447</v>
+        <v>0.1538533376264319</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.37233166666667</v>
+        <v>85.307233</v>
       </c>
       <c r="H12">
-        <v>82.116995</v>
+        <v>255.921699</v>
       </c>
       <c r="I12">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="J12">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>2561.028516975879</v>
+        <v>10930.08772954337</v>
       </c>
       <c r="R12">
-        <v>23049.2566527829</v>
+        <v>98370.78956589033</v>
       </c>
       <c r="S12">
-        <v>0.05173602942906759</v>
+        <v>0.1167812278178841</v>
       </c>
       <c r="T12">
-        <v>0.05173602942906758</v>
+        <v>0.1167812278178841</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.37233166666667</v>
+        <v>85.307233</v>
       </c>
       <c r="H13">
-        <v>82.116995</v>
+        <v>255.921699</v>
       </c>
       <c r="I13">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="J13">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>1863.790913570573</v>
+        <v>5609.895688584406</v>
       </c>
       <c r="R13">
-        <v>16774.11822213515</v>
+        <v>50489.06119725966</v>
       </c>
       <c r="S13">
-        <v>0.03765094410896171</v>
+        <v>0.05993826606463212</v>
       </c>
       <c r="T13">
-        <v>0.03765094410896171</v>
+        <v>0.05993826606463213</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.98736333333333</v>
+        <v>31.12938966666666</v>
       </c>
       <c r="H14">
-        <v>62.96209</v>
+        <v>93.38816899999999</v>
       </c>
       <c r="I14">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="J14">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>3222.169268984298</v>
+        <v>4535.575255452172</v>
       </c>
       <c r="R14">
-        <v>28999.52342085868</v>
+        <v>40820.17729906955</v>
       </c>
       <c r="S14">
-        <v>0.06509191249555263</v>
+        <v>0.04845981663627929</v>
       </c>
       <c r="T14">
-        <v>0.06509191249555263</v>
+        <v>0.04845981663627929</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.98736333333333</v>
+        <v>31.12938966666666</v>
       </c>
       <c r="H15">
-        <v>62.96209</v>
+        <v>93.38816899999999</v>
       </c>
       <c r="I15">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="J15">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>3542.66069042397</v>
+        <v>5254.631719928139</v>
       </c>
       <c r="R15">
-        <v>31883.94621381573</v>
+        <v>47291.68547935325</v>
       </c>
       <c r="S15">
-        <v>0.0715662463428562</v>
+        <v>0.0561424902679756</v>
       </c>
       <c r="T15">
-        <v>0.07156624634285619</v>
+        <v>0.0561424902679756</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.98736333333333</v>
+        <v>31.12938966666666</v>
       </c>
       <c r="H16">
-        <v>62.96209</v>
+        <v>93.38816899999999</v>
       </c>
       <c r="I16">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="J16">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>1963.633812688857</v>
+        <v>3988.488995110269</v>
       </c>
       <c r="R16">
-        <v>17672.70431419971</v>
+        <v>35896.40095599242</v>
       </c>
       <c r="S16">
-        <v>0.03966789750593774</v>
+        <v>0.04261453828299281</v>
       </c>
       <c r="T16">
-        <v>0.03966789750593774</v>
+        <v>0.04261453828299281</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.98736333333333</v>
+        <v>31.12938966666666</v>
       </c>
       <c r="H17">
-        <v>62.96209</v>
+        <v>93.38816899999999</v>
       </c>
       <c r="I17">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="J17">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>1429.036355280811</v>
+        <v>2047.10225309145</v>
       </c>
       <c r="R17">
-        <v>12861.3271975273</v>
+        <v>18423.92027782305</v>
       </c>
       <c r="S17">
-        <v>0.02886834974384313</v>
+        <v>0.02187202157020234</v>
       </c>
       <c r="T17">
-        <v>0.02886834974384313</v>
+        <v>0.02187202157020234</v>
       </c>
     </row>
   </sheetData>
